--- a/results/FrequencyTables/27068471_T4-sgRNA.xlsx
+++ b/results/FrequencyTables/27068471_T4-sgRNA.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00158971523361902</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>6.91180536356096e-05</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -480,58 +480,58 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.999792645839093</v>
       </c>
       <c r="H2">
-        <v>0.19</v>
+        <v>0.442977605750622</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.999308819463644</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.000207354160906829</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.996474979264584</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.91180536356096e-05</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000552944429084877</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.000276472214542438</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.000207354160906829</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.000483826375449267</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.000207354160906829</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.000898534697262925</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000345590268178048</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.000276472214542438</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.996405861210948</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.915883328725463</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.000967652750898535</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.997649986176389</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999723527785458</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.999239701410008</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000276472214542438</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.999792645839093</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.91180536356096e-05</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.000276472214542438</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000483826375449267</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.99149847940282</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00138236107271219</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.998755875034559</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.000276472214542438</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.998963229195466</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000760298589991706</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.000829416643627315</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000552944429084877</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.000138236107271219</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.999032347249102</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.000483826375449267</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000138236107271219</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.998686756980923</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,7 +613,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>6.91180536356096e-05</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -625,61 +625,61 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>6.91180536356096e-05</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>6.91180536356096e-05</v>
       </c>
       <c r="H4">
-        <v>0.81</v>
+        <v>0.548106165330384</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000414708321813658</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.000345590268178048</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000967652750898535</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.000552944429084877</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>6.91180536356096e-05</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01</v>
+        <v>6.91180536356096e-05</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000483826375449267</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.999032347249102</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.999447055570915</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.000345590268178048</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00304119435996682</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.080729886646392</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.000138236107271219</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,70 +687,70 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000414708321813658</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.000138236107271219</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.000552944429084877</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.999516173624551</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.000138236107271219</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>6.91180536356096e-05</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000138236107271219</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.998755875034559</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00836328448990876</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000829416643627315</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000207354160906829</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.999101465302737</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000207354160906829</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.998963229195466</v>
       </c>
       <c r="Q5">
-        <v>0.99</v>
+        <v>0.998548520873652</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.998548520873652</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>6.91180536356096e-05</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>6.91180536356096e-05</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000207354160906829</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>6.91180536356096e-05</v>
       </c>
       <c r="X5">
         <v>0</v>
